--- a/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - total.xlsx
@@ -12,10 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="84">
   <si>
-    <t>Index of wholesale prices (incl. rates of change): Germany,
-months</t>
+    <t>Index of wholesale prices: Germany, months</t>
   </si>
   <si>
     <t>Index of selling prices in wholesale trade</t>
@@ -268,7 +267,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:07:38</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:46:15</t>
   </si>
 </sst>
 </file>
@@ -23115,14 +23114,14 @@
       <c r="YB8" t="n" s="10">
         <v>123.9</v>
       </c>
-      <c r="YC8" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="YD8" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="YE8" t="s" s="10">
-        <v>76</v>
+      <c r="YC8" t="n" s="10">
+        <v>132.5</v>
+      </c>
+      <c r="YD8" t="n" s="10">
+        <v>135.3</v>
+      </c>
+      <c r="YE8" t="n" s="10">
+        <v>136.7</v>
       </c>
       <c r="YF8" t="s" s="10">
         <v>76</v>
@@ -25103,14 +25102,14 @@
       <c r="YB9" t="n" s="10">
         <v>1.7</v>
       </c>
-      <c r="YC9" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="YD9" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="YE9" t="s" s="10">
-        <v>76</v>
+      <c r="YC9" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="YD9" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="YE9" t="n" s="10">
+        <v>1.0</v>
       </c>
       <c r="YF9" t="s" s="10">
         <v>76</v>
@@ -27091,14 +27090,14 @@
       <c r="YB10" t="n" s="10">
         <v>16.6</v>
       </c>
-      <c r="YC10" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="YD10" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="YE10" t="s" s="10">
-        <v>76</v>
+      <c r="YC10" t="n" s="10">
+        <v>22.6</v>
+      </c>
+      <c r="YD10" t="n" s="10">
+        <v>23.8</v>
+      </c>
+      <c r="YE10" t="n" s="10">
+        <v>22.9</v>
       </c>
       <c r="YF10" t="s" s="10">
         <v>76</v>
@@ -27253,7 +27252,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:07:43&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:46:20&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of wholesale prices - total.xlsx
@@ -267,7 +267,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:46:15</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:57:27</t>
   </si>
 </sst>
 </file>
@@ -27252,7 +27252,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:46:20&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:57:32&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>